--- a/evaluation/results/hybrid/pca/LOF/split_4/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_4/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
       <c r="C2">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.1194029850746269</v>
+      </c>
+      <c r="F2">
+        <v>0.2531645569620253</v>
+      </c>
+      <c r="G2">
+        <v>0.6380368098159509</v>
+      </c>
+      <c r="H2">
+        <v>0.7780230069555912</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>413</v>
+      </c>
+      <c r="K2">
+        <v>121</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4775280898876405</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>510</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9479553903345725</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9550561797752809</v>
+        <v>0.2265917602996255</v>
       </c>
       <c r="D2">
-        <v>0.9514925373134329</v>
+        <v>0.3694656488549619</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
       <c r="C4">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
       <c r="D4">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
       <c r="E4">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4739776951672863</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="C5">
-        <v>0.4775280898876405</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D5">
-        <v>0.4757462686567164</v>
+        <v>0.2444343169647944</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9007262961542023</v>
+        <v>0.9533412415974695</v>
       </c>
       <c r="C6">
-        <v>0.9074733096085409</v>
+        <v>0.2651245551601423</v>
       </c>
       <c r="D6">
-        <v>0.9040872151697031</v>
+        <v>0.3570070108018491</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>510</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
